--- a/Output/EdgeWeightsExcel_half.xlsx
+++ b/Output/EdgeWeightsExcel_half.xlsx
@@ -1151,27 +1151,27 @@
       </c>
       <c r="B2"/>
       <c r="C2" t="n">
-        <v>-0.145911118263064</v>
+        <v>-0.145911118263063</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="n">
-        <v>0.203343877204451</v>
+        <v>0.203343877204449</v>
       </c>
       <c r="G2" t="n">
-        <v>0.287349763189192</v>
+        <v>0.287349763189193</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.0513727624787095</v>
+        <v>0.0513727624787091</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0444268984394342</v>
+        <v>0.0444268984394339</v>
       </c>
       <c r="L2"/>
       <c r="M2" t="n">
-        <v>-0.293780230818632</v>
+        <v>-0.29378023081863</v>
       </c>
       <c r="N2" t="n">
         <v>-0.0727665655104391</v>
@@ -1181,19 +1181,19 @@
         <v>-0.0253013333078394</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0766493486731661</v>
+        <v>-0.0766493486731658</v>
       </c>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2" t="n">
-        <v>0.0285309850758597</v>
+        <v>0.0285309850758596</v>
       </c>
       <c r="V2" t="n">
-        <v>0.365021253426317</v>
+        <v>0.365021253426315</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0851025490860722</v>
+        <v>-0.0851025490860713</v>
       </c>
       <c r="X2"/>
       <c r="Y2"/>
@@ -1225,11 +1225,11 @@
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3" t="n">
-        <v>-0.937035808737116</v>
+        <v>-0.937035808737113</v>
       </c>
       <c r="W3"/>
       <c r="X3" t="n">
-        <v>0.0587895807747761</v>
+        <v>0.058789580774776</v>
       </c>
       <c r="Y3"/>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="J4"/>
       <c r="K4" t="n">
-        <v>0.0232657788888738</v>
+        <v>0.0232657788888736</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -1291,28 +1291,28 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>-0.0538522644812547</v>
+        <v>-0.0538522644812544</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0263479352274555</v>
+        <v>0.0263479352274553</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="n">
-        <v>0.0402227841943643</v>
+        <v>0.0402227841943644</v>
       </c>
       <c r="R5"/>
       <c r="S5" t="n">
-        <v>0.0816318015446413</v>
+        <v>0.0816318015446411</v>
       </c>
       <c r="T5" t="n">
         <v>-0.0150461006304588</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0584667930820158</v>
+        <v>0.0584667930820161</v>
       </c>
       <c r="V5"/>
       <c r="W5" t="n">
-        <v>0.119486744640691</v>
+        <v>0.11948674464069</v>
       </c>
       <c r="X5"/>
       <c r="Y5"/>
@@ -1327,39 +1327,39 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.142178590405602</v>
+        <v>0.1421785904056</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0650100403619086</v>
+        <v>-0.0650100403619083</v>
       </c>
       <c r="I6" t="n">
         <v>-0.137312723050262</v>
       </c>
       <c r="J6" t="n">
-        <v>0.192045177840773</v>
+        <v>0.192045177840772</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>0.0841533628056364</v>
+        <v>0.0841533628056367</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0817681519322871</v>
+        <v>-0.0817681519322868</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="n">
         <v>0.174848012544786</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0938434593246265</v>
+        <v>-0.0938434593246264</v>
       </c>
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6" t="n">
-        <v>-0.0694776746406565</v>
+        <v>-0.0694776746406564</v>
       </c>
       <c r="T6"/>
       <c r="U6" t="n">
-        <v>0.087855978891276</v>
+        <v>0.0878559788912759</v>
       </c>
       <c r="V6" t="n">
         <v>0.127862895419698</v>
@@ -1368,10 +1368,10 @@
         <v>0.0316848378017573</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.034915827011663</v>
+        <v>-0.0349158270116633</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.169073574276035</v>
+        <v>-0.169073574276034</v>
       </c>
     </row>
     <row r="7">
@@ -1385,48 +1385,48 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>0.0485637725275686</v>
+        <v>0.0485637725275692</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0281200027648704</v>
+        <v>-0.0281200027648707</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="n">
-        <v>0.128197440170344</v>
+        <v>0.128197440170343</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
         <v>-0.118242107480608</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0541887398451098</v>
+        <v>0.0541887398451103</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0707605959176722</v>
+        <v>0.0707605959176724</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="n">
-        <v>-0.0758315046799132</v>
+        <v>-0.0758315046799135</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0694547534468428</v>
+        <v>0.0694547534468429</v>
       </c>
       <c r="S7"/>
       <c r="T7" t="n">
         <v>0.0193693882806956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0634274293842428</v>
+        <v>0.0634274293842426</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0658732025431292</v>
+        <v>0.0658732025431278</v>
       </c>
       <c r="W7"/>
       <c r="X7" t="n">
-        <v>0.0397449660261892</v>
+        <v>0.0397449660261894</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0745595245377597</v>
+        <v>0.07455952453776</v>
       </c>
     </row>
     <row r="8">
@@ -1445,12 +1445,12 @@
       </c>
       <c r="J8"/>
       <c r="K8" t="n">
-        <v>0.0523872916956711</v>
+        <v>0.0523872916956707</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.0268514474105873</v>
+        <v>0.0268514474105872</v>
       </c>
       <c r="O8" t="n">
         <v>0.0203256742618496</v>
@@ -1465,13 +1465,13 @@
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8" t="n">
-        <v>0.197681892845038</v>
+        <v>0.197681892845036</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0528038196196021</v>
+        <v>0.0528038196196025</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.053343255851861</v>
+        <v>0.0533432558518608</v>
       </c>
     </row>
     <row r="9">
@@ -1487,37 +1487,37 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>-0.0814897503304421</v>
+        <v>-0.0814897503304417</v>
       </c>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>-0.0589920949935102</v>
+        <v>-0.0589920949935104</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0417081077161611</v>
+        <v>0.0417081077161609</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.101368809113394</v>
+        <v>-0.101368809113393</v>
       </c>
       <c r="O9" t="n">
-        <v>0.020891210086051</v>
+        <v>0.0208912100860509</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="n">
-        <v>-0.0364957403767485</v>
+        <v>-0.0364957403767483</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0305393742430006</v>
+        <v>0.0305393742430004</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9" t="n">
-        <v>0.0930353359577511</v>
+        <v>0.0930353359577508</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0556910178232595</v>
+        <v>0.0556910178232597</v>
       </c>
       <c r="Y9"/>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>0.174921630492008</v>
+        <v>0.174921630492007</v>
       </c>
       <c r="O10"/>
       <c r="P10"/>
@@ -1574,27 +1574,27 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.0275590252285514</v>
+        <v>0.027559025228551</v>
       </c>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="n">
-        <v>-0.0598066916572021</v>
+        <v>-0.0598066916572016</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.107011983202066</v>
+        <v>-0.107011983202065</v>
       </c>
       <c r="T11"/>
       <c r="U11" t="n">
-        <v>0.0358662720885356</v>
+        <v>0.0358662720885351</v>
       </c>
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11" t="n">
-        <v>-0.114655999030739</v>
+        <v>-0.114655999030738</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.200398889849879</v>
+        <v>0.200398889849878</v>
       </c>
     </row>
     <row r="12">
@@ -1613,7 +1613,7 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>-0.0402271042599398</v>
+        <v>-0.0402271042599393</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -1649,22 +1649,22 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="n">
-        <v>-0.0451844594611364</v>
+        <v>-0.0451844594611363</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0770605037365149</v>
+        <v>0.0770605037365146</v>
       </c>
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13" t="n">
-        <v>-0.234771638522282</v>
+        <v>-0.234771638522273</v>
       </c>
       <c r="W13"/>
       <c r="X13" t="n">
-        <v>0.121252952897841</v>
+        <v>0.121252952897842</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0602413191171467</v>
+        <v>0.0602413191171464</v>
       </c>
     </row>
     <row r="14">
@@ -1687,21 +1687,21 @@
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14" t="n">
-        <v>-0.0645091904913814</v>
+        <v>-0.0645091904913812</v>
       </c>
       <c r="R14" t="n">
         <v>-0.116196105862636</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.0406795273053528</v>
+        <v>-0.0406795273053527</v>
       </c>
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14" t="n">
-        <v>0.128068680857066</v>
+        <v>0.128068680857067</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0362397323929551</v>
+        <v>0.0362397323929548</v>
       </c>
       <c r="X14" t="n">
         <v>0.176350896248116</v>
@@ -1732,10 +1732,10 @@
         <v>-0.0229432714799242</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.0856621813686345</v>
+        <v>-0.0856621813686346</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0847907340553021</v>
+        <v>0.084790734055302</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -1743,7 +1743,7 @@
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15" t="n">
-        <v>0.0645516168818411</v>
+        <v>0.0645516168818412</v>
       </c>
       <c r="Y15"/>
     </row>
@@ -1809,15 +1809,15 @@
         <v>-0.0187302953811753</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0365167471618797</v>
+        <v>-0.0365167471618796</v>
       </c>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17" t="n">
-        <v>-0.266037875519657</v>
+        <v>-0.266037875519656</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0666823417782584</v>
+        <v>0.0666823417782587</v>
       </c>
       <c r="Y17"/>
     </row>
@@ -1846,7 +1846,7 @@
         <v>-0.249208971561443</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.0795308718550546</v>
+        <v>-0.0795308718550548</v>
       </c>
       <c r="U18"/>
       <c r="V18"/>
@@ -1854,7 +1854,7 @@
         <v>0.17052716001605</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0631639352571244</v>
+        <v>0.0631639352571245</v>
       </c>
       <c r="Y18"/>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19" t="n">
-        <v>0.0378314557167163</v>
+        <v>0.037831455716716</v>
       </c>
     </row>
     <row r="20">
@@ -1917,7 +1917,7 @@
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20" t="n">
-        <v>0.0232974620369253</v>
+        <v>0.0232974620369252</v>
       </c>
       <c r="V20"/>
       <c r="W20"/>
@@ -1950,13 +1950,13 @@
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21" t="n">
-        <v>0.0487017023303138</v>
+        <v>0.0487017023303134</v>
       </c>
       <c r="X21" t="n">
         <v>-0.13717722473838</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.0619104614912478</v>
+        <v>-0.0619104614912477</v>
       </c>
     </row>
     <row r="22">
@@ -1985,13 +1985,13 @@
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22" t="n">
-        <v>-0.351259302866151</v>
+        <v>-0.351259302866149</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.0899535224461709</v>
+        <v>-0.0899535224461713</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.0958620215702149</v>
+        <v>-0.095862021570215</v>
       </c>
     </row>
     <row r="23">
@@ -2051,7 +2051,7 @@
       <c r="W24"/>
       <c r="X24"/>
       <c r="Y24" t="n">
-        <v>0.471752861284586</v>
+        <v>0.471752861284588</v>
       </c>
     </row>
     <row r="25">

--- a/Output/EdgeWeightsExcel_half.xlsx
+++ b/Output/EdgeWeightsExcel_half.xlsx
@@ -1167,7 +1167,7 @@
         <v>0.0513727624787091</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0444268984394339</v>
+        <v>0.0444268984394338</v>
       </c>
       <c r="L2"/>
       <c r="M2" t="n">
@@ -1181,13 +1181,13 @@
         <v>-0.0253013333078394</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0766493486731658</v>
+        <v>-0.0766493486731659</v>
       </c>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2" t="n">
-        <v>0.0285309850758596</v>
+        <v>0.0285309850758597</v>
       </c>
       <c r="V2" t="n">
         <v>0.365021253426315</v>
@@ -1291,7 +1291,7 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>-0.0538522644812544</v>
+        <v>-0.0538522644812543</v>
       </c>
       <c r="O5" t="n">
         <v>0.0263479352274553</v>
@@ -1308,7 +1308,7 @@
         <v>-0.0150461006304588</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0584667930820161</v>
+        <v>0.058466793082016</v>
       </c>
       <c r="V5"/>
       <c r="W5" t="n">
@@ -1330,7 +1330,7 @@
         <v>0.1421785904056</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0650100403619083</v>
+        <v>-0.0650100403619084</v>
       </c>
       <c r="I6" t="n">
         <v>-0.137312723050262</v>
@@ -1365,7 +1365,7 @@
         <v>0.127862895419698</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0316848378017573</v>
+        <v>0.0316848378017572</v>
       </c>
       <c r="X6" t="n">
         <v>-0.0349158270116633</v>
@@ -1388,7 +1388,7 @@
         <v>0.0485637725275692</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0281200027648707</v>
+        <v>-0.0281200027648706</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="n">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>-0.118242107480608</v>
+        <v>-0.118242107480607</v>
       </c>
       <c r="N7" t="n">
         <v>0.0541887398451103</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="P7"/>
       <c r="Q7" t="n">
-        <v>-0.0758315046799135</v>
+        <v>-0.0758315046799136</v>
       </c>
       <c r="R7" t="n">
         <v>0.0694547534468429</v>
@@ -1465,13 +1465,13 @@
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8" t="n">
-        <v>0.197681892845036</v>
+        <v>0.197681892845037</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0528038196196025</v>
+        <v>0.0528038196196024</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0533432558518608</v>
+        <v>0.0533432558518609</v>
       </c>
     </row>
     <row r="9">
@@ -1487,14 +1487,14 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>-0.0814897503304417</v>
+        <v>-0.0814897503304416</v>
       </c>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>-0.0589920949935104</v>
+        <v>-0.0589920949935103</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0417081077161609</v>
+        <v>0.0417081077161608</v>
       </c>
       <c r="N9" t="n">
         <v>-0.101368809113393</v>
@@ -1507,7 +1507,7 @@
         <v>-0.0364957403767483</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0305393742430004</v>
+        <v>0.0305393742430005</v>
       </c>
       <c r="S9"/>
       <c r="T9"/>
@@ -1517,7 +1517,7 @@
         <v>0.0930353359577508</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0556910178232597</v>
+        <v>0.0556910178232596</v>
       </c>
       <c r="Y9"/>
     </row>
@@ -1732,7 +1732,7 @@
         <v>-0.0229432714799242</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.0856621813686346</v>
+        <v>-0.0856621813686345</v>
       </c>
       <c r="R15" t="n">
         <v>0.084790734055302</v>
@@ -1854,7 +1854,7 @@
         <v>0.17052716001605</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0631639352571245</v>
+        <v>0.0631639352571246</v>
       </c>
       <c r="Y18"/>
     </row>
@@ -1956,7 +1956,7 @@
         <v>-0.13717722473838</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.0619104614912477</v>
+        <v>-0.0619104614912478</v>
       </c>
     </row>
     <row r="22">
@@ -1988,7 +1988,7 @@
         <v>-0.351259302866149</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.0899535224461713</v>
+        <v>-0.0899535224461712</v>
       </c>
       <c r="Y22" t="n">
         <v>-0.095862021570215</v>

--- a/Output/EdgeWeightsExcel_half.xlsx
+++ b/Output/EdgeWeightsExcel_half.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">V23</t>
   </si>
   <si>
-    <t xml:space="preserve">V24</t>
-  </si>
-  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
   </si>
   <si>
     <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
   </si>
 </sst>
 </file>
@@ -514,7 +508,7 @@
     <col min="22" max="22" width="11.71" hidden="0" customWidth="1"/>
     <col min="23" max="23" width="11.71" hidden="0" customWidth="1"/>
     <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="9.15" hidden="0" customWidth="1"/>
     <col min="26" max="26" width="9.15" hidden="0" customWidth="1"/>
     <col min="27" max="27" width="9.15" hidden="0" customWidth="1"/>
     <col min="28" max="28" width="9.15" hidden="0" customWidth="1"/>
@@ -1019,53 +1013,6 @@
     <col min="527" max="527" width="9.15" hidden="0" customWidth="1"/>
     <col min="528" max="528" width="9.15" hidden="0" customWidth="1"/>
     <col min="529" max="529" width="9.15" hidden="0" customWidth="1"/>
-    <col min="530" max="530" width="9.15" hidden="0" customWidth="1"/>
-    <col min="531" max="531" width="9.15" hidden="0" customWidth="1"/>
-    <col min="532" max="532" width="9.15" hidden="0" customWidth="1"/>
-    <col min="533" max="533" width="9.15" hidden="0" customWidth="1"/>
-    <col min="534" max="534" width="9.15" hidden="0" customWidth="1"/>
-    <col min="535" max="535" width="9.15" hidden="0" customWidth="1"/>
-    <col min="536" max="536" width="9.15" hidden="0" customWidth="1"/>
-    <col min="537" max="537" width="9.15" hidden="0" customWidth="1"/>
-    <col min="538" max="538" width="9.15" hidden="0" customWidth="1"/>
-    <col min="539" max="539" width="9.15" hidden="0" customWidth="1"/>
-    <col min="540" max="540" width="9.15" hidden="0" customWidth="1"/>
-    <col min="541" max="541" width="9.15" hidden="0" customWidth="1"/>
-    <col min="542" max="542" width="9.15" hidden="0" customWidth="1"/>
-    <col min="543" max="543" width="9.15" hidden="0" customWidth="1"/>
-    <col min="544" max="544" width="9.15" hidden="0" customWidth="1"/>
-    <col min="545" max="545" width="9.15" hidden="0" customWidth="1"/>
-    <col min="546" max="546" width="9.15" hidden="0" customWidth="1"/>
-    <col min="547" max="547" width="9.15" hidden="0" customWidth="1"/>
-    <col min="548" max="548" width="9.15" hidden="0" customWidth="1"/>
-    <col min="549" max="549" width="9.15" hidden="0" customWidth="1"/>
-    <col min="550" max="550" width="9.15" hidden="0" customWidth="1"/>
-    <col min="551" max="551" width="9.15" hidden="0" customWidth="1"/>
-    <col min="552" max="552" width="9.15" hidden="0" customWidth="1"/>
-    <col min="553" max="553" width="9.15" hidden="0" customWidth="1"/>
-    <col min="554" max="554" width="9.15" hidden="0" customWidth="1"/>
-    <col min="555" max="555" width="9.15" hidden="0" customWidth="1"/>
-    <col min="556" max="556" width="9.15" hidden="0" customWidth="1"/>
-    <col min="557" max="557" width="9.15" hidden="0" customWidth="1"/>
-    <col min="558" max="558" width="9.15" hidden="0" customWidth="1"/>
-    <col min="559" max="559" width="9.15" hidden="0" customWidth="1"/>
-    <col min="560" max="560" width="9.15" hidden="0" customWidth="1"/>
-    <col min="561" max="561" width="9.15" hidden="0" customWidth="1"/>
-    <col min="562" max="562" width="9.15" hidden="0" customWidth="1"/>
-    <col min="563" max="563" width="9.15" hidden="0" customWidth="1"/>
-    <col min="564" max="564" width="9.15" hidden="0" customWidth="1"/>
-    <col min="565" max="565" width="9.15" hidden="0" customWidth="1"/>
-    <col min="566" max="566" width="9.15" hidden="0" customWidth="1"/>
-    <col min="567" max="567" width="9.15" hidden="0" customWidth="1"/>
-    <col min="568" max="568" width="9.15" hidden="0" customWidth="1"/>
-    <col min="569" max="569" width="9.15" hidden="0" customWidth="1"/>
-    <col min="570" max="570" width="9.15" hidden="0" customWidth="1"/>
-    <col min="571" max="571" width="9.15" hidden="0" customWidth="1"/>
-    <col min="572" max="572" width="9.15" hidden="0" customWidth="1"/>
-    <col min="573" max="573" width="9.15" hidden="0" customWidth="1"/>
-    <col min="574" max="574" width="9.15" hidden="0" customWidth="1"/>
-    <col min="575" max="575" width="9.15" hidden="0" customWidth="1"/>
-    <col min="576" max="576" width="9.15" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1141,66 +1088,58 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="n">
-        <v>-0.145911118263063</v>
+        <v>0.148907550447576</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="n">
-        <v>0.203343877204449</v>
+        <v>0.194015607244945</v>
       </c>
       <c r="G2" t="n">
-        <v>0.287349763189193</v>
+        <v>0.283173738597793</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" t="n">
-        <v>0.0513727624787091</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0444268984394338</v>
-      </c>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="L2"/>
       <c r="M2" t="n">
-        <v>-0.29378023081863</v>
+        <v>0.295006586166423</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0727665655104391</v>
-      </c>
-      <c r="O2"/>
+        <v>-0.0617574214897367</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.0190284575080915</v>
+      </c>
       <c r="P2" t="n">
-        <v>-0.0253013333078394</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.0766493486731659</v>
-      </c>
-      <c r="R2"/>
+        <v>0.0699291705672359</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2" t="n">
+        <v>0.0735408604692318</v>
+      </c>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2" t="n">
-        <v>0.0285309850758597</v>
+        <v>0.347154275023121</v>
       </c>
       <c r="V2" t="n">
-        <v>0.365021253426315</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-0.0851025490860713</v>
-      </c>
+        <v>0.0883306956306445</v>
+      </c>
+      <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -1214,7 +1153,7 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>0.178884913088059</v>
+        <v>0.179464864414321</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
@@ -1223,60 +1162,58 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3" t="n">
-        <v>-0.937035808737113</v>
-      </c>
-      <c r="W3"/>
-      <c r="X3" t="n">
-        <v>0.058789580774776</v>
-      </c>
-      <c r="Y3"/>
+      <c r="U3" t="n">
+        <v>0.935059640052566</v>
+      </c>
+      <c r="V3"/>
+      <c r="W3" t="n">
+        <v>0.0622795926584814</v>
+      </c>
+      <c r="X3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.176975473559439</v>
+        <v>0.167775336170829</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.0374629584595389</v>
+        <v>-0.0404196460548495</v>
       </c>
       <c r="I4" t="n">
-        <v>0.192779866147966</v>
+        <v>0.18232505081858</v>
       </c>
       <c r="J4"/>
-      <c r="K4" t="n">
-        <v>0.0232657788888736</v>
-      </c>
+      <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4" t="n">
-        <v>0.109383492109564</v>
-      </c>
+      <c r="N4" t="n">
+        <v>0.167406048962778</v>
+      </c>
+      <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4" t="n">
-        <v>0.146903982462657</v>
-      </c>
+      <c r="T4" t="n">
+        <v>-0.0872634059135343</v>
+      </c>
+      <c r="U4"/>
       <c r="V4"/>
-      <c r="W4"/>
+      <c r="W4" t="n">
+        <v>-0.0327662960963993</v>
+      </c>
       <c r="X4"/>
-      <c r="Y4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -1291,35 +1228,26 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>-0.0538522644812543</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.0263479352274553</v>
-      </c>
+        <v>0.02465914957506</v>
+      </c>
+      <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5" t="n">
-        <v>0.0402227841943644</v>
-      </c>
+      <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5" t="n">
-        <v>0.0816318015446411</v>
-      </c>
+      <c r="S5"/>
       <c r="T5" t="n">
-        <v>-0.0150461006304588</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.058466793082016</v>
-      </c>
-      <c r="V5"/>
-      <c r="W5" t="n">
-        <v>0.11948674464069</v>
-      </c>
+        <v>-0.0204740871539305</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5" t="n">
+        <v>0.108842603479133</v>
+      </c>
+      <c r="W5"/>
       <c r="X5"/>
-      <c r="Y5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -1327,56 +1255,55 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.1421785904056</v>
+        <v>0.146786733519068</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0650100403619084</v>
+        <v>-0.0678627390518708</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.137312723050262</v>
+        <v>0.131820240646192</v>
       </c>
       <c r="J6" t="n">
-        <v>0.192045177840772</v>
+        <v>0.19463718144328</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>0.0841533628056367</v>
+        <v>0.0850261731015894</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0817681519322868</v>
-      </c>
-      <c r="N6"/>
+        <v>0.0834751480798543</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.185856064159848</v>
+      </c>
       <c r="O6" t="n">
-        <v>0.174848012544786</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-0.0938434593246264</v>
-      </c>
+        <v>-0.0850155783825751</v>
+      </c>
+      <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6" t="n">
-        <v>-0.0694776746406564</v>
-      </c>
-      <c r="T6"/>
+      <c r="R6" t="n">
+        <v>0.13242647385427</v>
+      </c>
+      <c r="S6"/>
+      <c r="T6" t="n">
+        <v>0.0849908996284779</v>
+      </c>
       <c r="U6" t="n">
-        <v>0.0878559788912759</v>
+        <v>0.123809783975947</v>
       </c>
       <c r="V6" t="n">
-        <v>0.127862895419698</v>
+        <v>-0.044345351917926</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0316848378017572</v>
+        <v>0.0384124225762681</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.0349158270116633</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>-0.169073574276034</v>
+        <v>0.167789282390026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -1385,53 +1312,52 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>0.0485637725275692</v>
+        <v>0.0555279262620864</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0281200027648706</v>
+        <v>0.026017419154365</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="n">
-        <v>0.128197440170343</v>
+        <v>0.1279922914494</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>-0.118242107480607</v>
+        <v>0.119567389501182</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0541887398451103</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.0707605959176724</v>
-      </c>
-      <c r="P7"/>
+        <v>-0.0447104196156449</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7" t="n">
+        <v>0.0856364912720907</v>
+      </c>
       <c r="Q7" t="n">
-        <v>-0.0758315046799136</v>
+        <v>-0.0610050028604779</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0694547534468429</v>
-      </c>
-      <c r="S7"/>
+        <v>0.0250626871974782</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0246685923623151</v>
+      </c>
       <c r="T7" t="n">
-        <v>0.0193693882806956</v>
+        <v>0.0438985400407446</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0634274293842426</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.0658732025431278</v>
-      </c>
-      <c r="W7"/>
+        <v>0.0674636868381444</v>
+      </c>
+      <c r="V7"/>
+      <c r="W7" t="n">
+        <v>-0.0538503267339829</v>
+      </c>
       <c r="X7" t="n">
-        <v>0.0397449660261894</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.07455952453776</v>
+        <v>-0.083262489364544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -1440,43 +1366,38 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8" t="n">
-        <v>0.0196218312412668</v>
-      </c>
+      <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="n">
-        <v>0.0523872916956707</v>
+        <v>0.0516770910169222</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.0268514474105872</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.0203256742618496</v>
-      </c>
+        <v>-0.0210382778877615</v>
+      </c>
+      <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8" t="n">
-        <v>-0.0942952052911439</v>
-      </c>
+      <c r="R8" t="n">
+        <v>0.0564081259413646</v>
+      </c>
+      <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
-      <c r="V8"/>
+      <c r="V8" t="n">
+        <v>-0.20228983254153</v>
+      </c>
       <c r="W8" t="n">
-        <v>0.197681892845037</v>
+        <v>-0.0570942307031173</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0528038196196024</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.0533432558518609</v>
+        <v>-0.0566236356520879</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -1487,43 +1408,36 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>-0.0814897503304416</v>
+        <v>0.0930853953114172</v>
       </c>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>-0.0589920949935103</v>
+        <v>0.060190659545103</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0417081077161608</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-0.101368809113393</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.0208912100860509</v>
-      </c>
+        <v>0.0414458972689309</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
       <c r="P9"/>
       <c r="Q9" t="n">
-        <v>-0.0364957403767483</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.0305393742430005</v>
-      </c>
+        <v>0.0383377994014227</v>
+      </c>
+      <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
-      <c r="V9"/>
+      <c r="V9" t="n">
+        <v>0.093395875333424</v>
+      </c>
       <c r="W9" t="n">
-        <v>0.0930353359577508</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.0556910178232596</v>
-      </c>
-      <c r="Y9"/>
+        <v>0.0306599142321537</v>
+      </c>
+      <c r="X9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -1536,12 +1450,10 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="n">
-        <v>0.698361424767135</v>
+        <v>0.708763130479342</v>
       </c>
       <c r="M10"/>
-      <c r="N10" t="n">
-        <v>0.174921630492007</v>
-      </c>
+      <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
@@ -1550,15 +1462,14 @@
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10" t="n">
-        <v>0.0520937485582053</v>
-      </c>
-      <c r="Y10"/>
+      <c r="W10" t="n">
+        <v>-0.0770867853499721</v>
+      </c>
+      <c r="X10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -1572,34 +1483,33 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11" t="n">
-        <v>0.027559025228551</v>
-      </c>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="N11" t="n">
+        <v>-0.0529518818830195</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11" t="n">
+        <v>-0.0294331088219407</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0701798478341967</v>
+      </c>
       <c r="R11" t="n">
-        <v>-0.0598066916572016</v>
-      </c>
-      <c r="S11" t="n">
-        <v>-0.107011983202065</v>
-      </c>
+        <v>0.122002653103038</v>
+      </c>
+      <c r="S11"/>
       <c r="T11"/>
-      <c r="U11" t="n">
-        <v>0.0358662720885351</v>
-      </c>
+      <c r="U11"/>
       <c r="V11"/>
-      <c r="W11"/>
+      <c r="W11" t="n">
+        <v>0.116283603484992</v>
+      </c>
       <c r="X11" t="n">
-        <v>-0.114655999030738</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.200398889849878</v>
+        <v>-0.199401899164201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -1613,11 +1523,13 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>-0.0402271042599393</v>
+        <v>0.0409232352667839</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
-      <c r="P12"/>
+      <c r="P12" t="n">
+        <v>-0.0518999881489759</v>
+      </c>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
@@ -1626,11 +1538,10 @@
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
-      <c r="Y12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -1645,31 +1556,30 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13"/>
+      <c r="O13" t="n">
+        <v>-0.0159871954076025</v>
+      </c>
       <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13" t="n">
-        <v>-0.0451844594611363</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.0770605037365146</v>
-      </c>
+      <c r="Q13" t="n">
+        <v>-0.0477134986273915</v>
+      </c>
+      <c r="R13"/>
+      <c r="S13"/>
       <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13" t="n">
-        <v>-0.234771638522273</v>
-      </c>
-      <c r="W13"/>
+      <c r="U13" t="n">
+        <v>0.23569150097236</v>
+      </c>
+      <c r="V13"/>
+      <c r="W13" t="n">
+        <v>0.121704902407499</v>
+      </c>
       <c r="X13" t="n">
-        <v>0.121252952897842</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.0602413191171464</v>
+        <v>0.0618109429347738</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -1684,35 +1594,34 @@
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
+      <c r="O14" t="n">
+        <v>0.0752968700759377</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0.103268668539041</v>
+      </c>
       <c r="Q14" t="n">
-        <v>-0.0645091904913812</v>
-      </c>
-      <c r="R14" t="n">
-        <v>-0.116196105862636</v>
-      </c>
+        <v>0.0622587936032108</v>
+      </c>
+      <c r="R14"/>
       <c r="S14" t="n">
-        <v>-0.0406795273053527</v>
-      </c>
-      <c r="T14"/>
+        <v>-0.0304228611226221</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.0303348053791712</v>
+      </c>
       <c r="U14"/>
-      <c r="V14" t="n">
-        <v>0.128068680857067</v>
-      </c>
+      <c r="V14"/>
       <c r="W14" t="n">
-        <v>0.0362397323929548</v>
+        <v>0.0916685206388701</v>
       </c>
       <c r="X14" t="n">
-        <v>0.176350896248116</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.120159179008632</v>
+        <v>0.0447650413768537</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -1729,27 +1638,24 @@
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15" t="n">
-        <v>-0.0229432714799242</v>
+        <v>-0.124159525037115</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.0856621813686345</v>
+        <v>0.134016167819947</v>
       </c>
       <c r="R15" t="n">
-        <v>0.084790734055302</v>
+        <v>-0.0561874746414536</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
-      <c r="X15" t="n">
-        <v>0.0645516168818412</v>
-      </c>
-      <c r="Y15"/>
+      <c r="X15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -1767,24 +1673,27 @@
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16" t="n">
-        <v>0.113751637700597</v>
-      </c>
-      <c r="R16" t="n">
-        <v>-0.144000749177128</v>
-      </c>
+        <v>0.201327421349939</v>
+      </c>
+      <c r="R16"/>
       <c r="S16" t="n">
-        <v>0.0268361714573333</v>
+        <v>0.0482576080175524</v>
       </c>
       <c r="T16"/>
       <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
+      <c r="V16" t="n">
+        <v>-0.289341633030354</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.070578542952695</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.0406655308481683</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -1803,27 +1712,26 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="n">
-        <v>0.188098329551415</v>
+        <v>-0.300676428361471</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0187302953811753</v>
-      </c>
-      <c r="T17" t="n">
-        <v>-0.0365167471618796</v>
-      </c>
+        <v>0.0890355902447695</v>
+      </c>
+      <c r="T17"/>
       <c r="U17"/>
-      <c r="V17"/>
+      <c r="V17" t="n">
+        <v>0.162607385054892</v>
+      </c>
       <c r="W17" t="n">
-        <v>-0.266037875519656</v>
+        <v>0.0365975321693182</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0666823417782587</v>
-      </c>
-      <c r="Y17"/>
+        <v>-0.0293070843097258</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -1843,24 +1751,21 @@
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18" t="n">
-        <v>-0.249208971561443</v>
+        <v>0.0688501114415455</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.0795308718550548</v>
-      </c>
-      <c r="U18"/>
+        <v>0.183999728869466</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.06122672354775</v>
+      </c>
       <c r="V18"/>
-      <c r="W18" t="n">
-        <v>0.17052716001605</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.0631639352571246</v>
-      </c>
-      <c r="Y18"/>
+      <c r="W18"/>
+      <c r="X18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -1881,21 +1786,18 @@
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19" t="n">
-        <v>-0.116224235151255</v>
-      </c>
-      <c r="U19" t="n">
-        <v>-0.158291127989838</v>
-      </c>
-      <c r="V19"/>
+        <v>0.0285005285703574</v>
+      </c>
+      <c r="U19"/>
+      <c r="V19" t="n">
+        <v>0.0312865000054433</v>
+      </c>
       <c r="W19"/>
       <c r="X19"/>
-      <c r="Y19" t="n">
-        <v>0.037831455716716</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -1916,17 +1818,20 @@
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
-      <c r="U20" t="n">
-        <v>0.0232974620369252</v>
-      </c>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
+      <c r="U20"/>
+      <c r="V20" t="n">
+        <v>-0.0478311588511987</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.107443353338297</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.0553383237368046</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -1948,20 +1853,15 @@
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21" t="n">
-        <v>0.0487017023303134</v>
-      </c>
-      <c r="X21" t="n">
-        <v>-0.13717722473838</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>-0.0619104614912478</v>
-      </c>
+      <c r="V21" t="n">
+        <v>0.346749876185462</v>
+      </c>
+      <c r="W21"/>
+      <c r="X21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -1985,18 +1885,13 @@
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22" t="n">
-        <v>-0.351259302866149</v>
-      </c>
-      <c r="X22" t="n">
-        <v>-0.0899535224461712</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>-0.095862021570215</v>
-      </c>
+        <v>0.0459756126955499</v>
+      </c>
+      <c r="X22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -2020,12 +1915,13 @@
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
+      <c r="X23" t="n">
+        <v>0.50159330770842</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -2050,38 +1946,6 @@
       <c r="V24"/>
       <c r="W24"/>
       <c r="X24"/>
-      <c r="Y24" t="n">
-        <v>0.471752861284588</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/EdgeWeightsExcel_half.xlsx
+++ b/Output/EdgeWeightsExcel_half.xlsx
@@ -1095,44 +1095,44 @@
       </c>
       <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.148907550447576</v>
+        <v>0.147361672433382</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="n">
-        <v>0.194015607244945</v>
+        <v>0.195084855528764</v>
       </c>
       <c r="G2" t="n">
-        <v>0.283173738597793</v>
+        <v>0.283864405155383</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2"/>
+      <c r="J2" t="n">
+        <v>0.039285243870159</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2" t="n">
-        <v>0.295006586166423</v>
+        <v>0.29665924724257</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0617574214897367</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-0.0190284575080915</v>
-      </c>
+        <v>-0.0615239564526137</v>
+      </c>
+      <c r="O2"/>
       <c r="P2" t="n">
-        <v>0.0699291705672359</v>
+        <v>0.063214306936374</v>
       </c>
       <c r="Q2"/>
       <c r="R2" t="n">
-        <v>0.0735408604692318</v>
+        <v>0.0730299192922901</v>
       </c>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2" t="n">
-        <v>0.347154275023121</v>
+        <v>0.343791955427362</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0883306956306445</v>
+        <v>0.0864135740044472</v>
       </c>
       <c r="W2"/>
       <c r="X2"/>
@@ -1153,7 +1153,7 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>0.179464864414321</v>
+        <v>0.177928667397783</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
@@ -1163,11 +1163,11 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3" t="n">
-        <v>0.935059640052566</v>
+        <v>0.954076794686476</v>
       </c>
       <c r="V3"/>
       <c r="W3" t="n">
-        <v>0.0622795926584814</v>
+        <v>0.0615663207519539</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1179,22 +1179,24 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.167775336170829</v>
+        <v>0.165442650835118</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>-0.0404196460548495</v>
+        <v>-0.0342602010432672</v>
       </c>
       <c r="I4" t="n">
-        <v>0.18232505081858</v>
+        <v>0.196262184691042</v>
       </c>
       <c r="J4"/>
-      <c r="K4"/>
+      <c r="K4" t="n">
+        <v>-0.019016102999575</v>
+      </c>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>0.167406048962778</v>
+        <v>0.166244571951061</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -1202,12 +1204,12 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4" t="n">
-        <v>-0.0872634059135343</v>
+        <v>-0.0781616243603973</v>
       </c>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4" t="n">
-        <v>-0.0327662960963993</v>
+        <v>-0.0389158360761881</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1227,20 +1229,16 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="n">
-        <v>0.02465914957506</v>
-      </c>
+      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
-      <c r="T5" t="n">
-        <v>-0.0204740871539305</v>
-      </c>
+      <c r="T5"/>
       <c r="U5"/>
       <c r="V5" t="n">
-        <v>0.108842603479133</v>
+        <v>0.112728579150755</v>
       </c>
       <c r="W5"/>
       <c r="X5"/>
@@ -1255,50 +1253,50 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.146786733519068</v>
+        <v>0.147442009291539</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0678627390518708</v>
+        <v>-0.0597056293702249</v>
       </c>
       <c r="I6" t="n">
-        <v>0.131820240646192</v>
+        <v>0.139961790320562</v>
       </c>
       <c r="J6" t="n">
-        <v>0.19463718144328</v>
+        <v>0.194140015376031</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>0.0850261731015894</v>
+        <v>0.0870586000876809</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0834751480798543</v>
+        <v>0.085565170216615</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.185856064159848</v>
+        <v>-0.189570550586331</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0850155783825751</v>
+        <v>-0.0859495875959825</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" t="n">
-        <v>0.13242647385427</v>
+        <v>0.132025177573123</v>
       </c>
       <c r="S6"/>
       <c r="T6" t="n">
-        <v>0.0849908996284779</v>
+        <v>0.0847372190075983</v>
       </c>
       <c r="U6" t="n">
-        <v>0.123809783975947</v>
+        <v>0.119100351553242</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.044345351917926</v>
+        <v>-0.0367049375696989</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0384124225762681</v>
+        <v>0.0388629662038809</v>
       </c>
       <c r="X6" t="n">
-        <v>0.167789282390026</v>
+        <v>0.16818455811866</v>
       </c>
     </row>
     <row r="7">
@@ -1312,47 +1310,47 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>0.0555279262620864</v>
+        <v>0.0492865754816253</v>
       </c>
       <c r="I7" t="n">
-        <v>0.026017419154365</v>
+        <v>0.030650942251493</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="n">
-        <v>0.1279922914494</v>
+        <v>0.127255084255994</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.119567389501182</v>
+        <v>0.118733464301797</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0447104196156449</v>
+        <v>-0.0418816208466254</v>
       </c>
       <c r="O7"/>
       <c r="P7" t="n">
-        <v>0.0856364912720907</v>
+        <v>0.0807476140269174</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0610050028604779</v>
+        <v>-0.0590320460193886</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0250626871974782</v>
+        <v>0.0294270276917267</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0246685923623151</v>
+        <v>0.0208964642886541</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0438985400407446</v>
+        <v>0.0400835890317947</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0674636868381444</v>
+        <v>0.0721007956383388</v>
       </c>
       <c r="V7"/>
       <c r="W7" t="n">
-        <v>-0.0538503267339829</v>
+        <v>-0.0524321209983798</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.083262489364544</v>
+        <v>-0.0817531575855365</v>
       </c>
     </row>
     <row r="8">
@@ -1369,30 +1367,28 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="n">
-        <v>0.0516770910169222</v>
+        <v>0.0468830077040953</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="N8" t="n">
-        <v>-0.0210382778877615</v>
-      </c>
+      <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" t="n">
-        <v>0.0564081259413646</v>
+        <v>0.0448181276859438</v>
       </c>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8" t="n">
-        <v>-0.20228983254153</v>
+        <v>-0.19618131296184</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.0570942307031173</v>
+        <v>-0.0553239051482225</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.0566236356520879</v>
+        <v>-0.0549132544269569</v>
       </c>
     </row>
     <row r="9">
@@ -1408,30 +1404,32 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>0.0930853953114172</v>
+        <v>0.0984666467086239</v>
       </c>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>0.060190659545103</v>
+        <v>0.0630136749941603</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0414458972689309</v>
+        <v>0.0416223429306809</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9"/>
+      <c r="P9" t="n">
+        <v>-0.0186114817250302</v>
+      </c>
       <c r="Q9" t="n">
-        <v>0.0383377994014227</v>
+        <v>0.0426862487855902</v>
       </c>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9" t="n">
-        <v>0.093395875333424</v>
+        <v>0.0993525900439889</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0306599142321537</v>
+        <v>0.0331350252051728</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1450,7 +1448,7 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="n">
-        <v>0.708763130479342</v>
+        <v>0.708188155667581</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -1463,7 +1461,7 @@
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10" t="n">
-        <v>-0.0770867853499721</v>
+        <v>-0.0840801633464389</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1484,27 +1482,25 @@
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-0.0529518818830195</v>
+        <v>-0.0524279898675566</v>
       </c>
       <c r="O11"/>
-      <c r="P11" t="n">
-        <v>-0.0294331088219407</v>
-      </c>
+      <c r="P11"/>
       <c r="Q11" t="n">
-        <v>0.0701798478341967</v>
+        <v>0.0659169355189084</v>
       </c>
       <c r="R11" t="n">
-        <v>0.122002653103038</v>
+        <v>0.118721450048689</v>
       </c>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11" t="n">
-        <v>0.116283603484992</v>
+        <v>0.11215855832279</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.199401899164201</v>
+        <v>-0.195611240610624</v>
       </c>
     </row>
     <row r="12">
@@ -1523,12 +1519,12 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>0.0409232352667839</v>
+        <v>0.0422431341027043</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12" t="n">
-        <v>-0.0518999881489759</v>
+        <v>-0.0323858095864364</v>
       </c>
       <c r="Q12"/>
       <c r="R12"/>
@@ -1556,25 +1552,23 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13" t="n">
-        <v>-0.0159871954076025</v>
-      </c>
+      <c r="O13"/>
       <c r="P13"/>
       <c r="Q13" t="n">
-        <v>-0.0477134986273915</v>
+        <v>-0.0448132214556739</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13" t="n">
-        <v>0.23569150097236</v>
+        <v>0.23445163764806</v>
       </c>
       <c r="V13"/>
       <c r="W13" t="n">
-        <v>0.121704902407499</v>
+        <v>0.120845888474301</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0618109429347738</v>
+        <v>0.0616515767935342</v>
       </c>
     </row>
     <row r="14">
@@ -1595,29 +1589,27 @@
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14" t="n">
-        <v>0.0752968700759377</v>
+        <v>0.0737061796350753</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.103268668539041</v>
+        <v>-0.104212791917457</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0622587936032108</v>
+        <v>0.0628828034010385</v>
       </c>
       <c r="R14"/>
       <c r="S14" t="n">
-        <v>-0.0304228611226221</v>
+        <v>-0.0257414642037638</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.0303348053791712</v>
+        <v>-0.0300717163200668</v>
       </c>
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14" t="n">
-        <v>0.0916685206388701</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.0447650413768537</v>
-      </c>
+        <v>0.0956439526673278</v>
+      </c>
+      <c r="X14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1638,13 +1630,13 @@
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15" t="n">
-        <v>-0.124159525037115</v>
+        <v>-0.109983178497834</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.134016167819947</v>
+        <v>0.129280283278855</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0561874746414536</v>
+        <v>-0.0588912167177525</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
@@ -1673,23 +1665,21 @@
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16" t="n">
-        <v>0.201327421349939</v>
+        <v>0.18942200938876</v>
       </c>
       <c r="R16"/>
       <c r="S16" t="n">
-        <v>0.0482576080175524</v>
+        <v>0.0343708445631814</v>
       </c>
       <c r="T16"/>
       <c r="U16"/>
       <c r="V16" t="n">
-        <v>-0.289341633030354</v>
+        <v>-0.270638363729084</v>
       </c>
       <c r="W16" t="n">
-        <v>0.070578542952695</v>
-      </c>
-      <c r="X16" t="n">
-        <v>-0.0406655308481683</v>
-      </c>
+        <v>0.0566323206157543</v>
+      </c>
+      <c r="X16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1712,21 +1702,21 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="n">
-        <v>-0.300676428361471</v>
+        <v>-0.298433253076013</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0890355902447695</v>
+        <v>0.0816323404835728</v>
       </c>
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17" t="n">
-        <v>0.162607385054892</v>
+        <v>0.155684834014798</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0365975321693182</v>
+        <v>0.0368937514232028</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.0293070843097258</v>
+        <v>-0.0282993978331405</v>
       </c>
     </row>
     <row r="18">
@@ -1751,13 +1741,13 @@
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18" t="n">
-        <v>0.0688501114415455</v>
+        <v>0.0640820279407426</v>
       </c>
       <c r="T18" t="n">
-        <v>0.183999728869466</v>
+        <v>0.174797727071569</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06122672354775</v>
+        <v>0.0670871139782409</v>
       </c>
       <c r="V18"/>
       <c r="W18"/>
@@ -1786,11 +1776,11 @@
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19" t="n">
-        <v>0.0285005285703574</v>
+        <v>0.0166598098163706</v>
       </c>
       <c r="U19"/>
       <c r="V19" t="n">
-        <v>0.0312865000054433</v>
+        <v>0.0243880849707773</v>
       </c>
       <c r="W19"/>
       <c r="X19"/>
@@ -1820,13 +1810,13 @@
       <c r="T20"/>
       <c r="U20"/>
       <c r="V20" t="n">
-        <v>-0.0478311588511987</v>
+        <v>-0.0338714767429168</v>
       </c>
       <c r="W20" t="n">
-        <v>0.107443353338297</v>
+        <v>0.10608274416271</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0553383237368046</v>
+        <v>0.0529307422609259</v>
       </c>
     </row>
     <row r="21">
@@ -1854,7 +1844,7 @@
       <c r="T21"/>
       <c r="U21"/>
       <c r="V21" t="n">
-        <v>0.346749876185462</v>
+        <v>0.342316823411115</v>
       </c>
       <c r="W21"/>
       <c r="X21"/>
@@ -1885,7 +1875,7 @@
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22" t="n">
-        <v>0.0459756126955499</v>
+        <v>0.0442550904666215</v>
       </c>
       <c r="X22"/>
     </row>
@@ -1916,7 +1906,7 @@
       <c r="V23"/>
       <c r="W23"/>
       <c r="X23" t="n">
-        <v>0.50159330770842</v>
+        <v>0.5027778768252</v>
       </c>
     </row>
     <row r="24">
